--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_01_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_01_beg.xlsx
@@ -1592,7 +1592,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">라이타니엔의 이동도시 월루몽드. 한때는 번화한 상업 도시였지만, 지금은 인적조차 드문 도시로 변해버렸다.
+    <t xml:space="preserve">라이타니아의 이동도시 월루몽드. 한때는 번화한 상업 도시였지만, 지금은 인적조차 드문 도시로 변해버렸다.
 </t>
   </si>
   <si>
@@ -1776,7 +1776,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스즈란"]  여덟 번째 달이라는 뜻을 가진 월루몽드는, 주변의 일곱 도시와 함께 라이타니엔 서부에 번화한 상업지구를 형성했다……
+    <t xml:space="preserve">[name="스즈란"]  여덟 번째 달이라는 뜻을 가진 월루몽드는, 주변의 일곱 도시와 함께 라이타니아 서부에 번화한 상업지구를 형성했다……
 </t>
   </si>
   <si>
@@ -1824,7 +1824,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  오리지늄 아츠의 보편화 덕분에 라이타니엔에는 다른 지역과는 다른 두 가지 특색이 생겼어. 하나는 음악 예술의 번영, 또 하나는 감염자에 대한 너그러운 태도지.
+    <t xml:space="preserve">[name="폴리닉"]  오리지늄 아츠의 보편화 덕분에 라이타니아에는 다른 지역과는 다른 두 가지 특색이 생겼어. 하나는 음악 예술의 번영, 또 하나는 감염자에 대한 너그러운 태도지.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_01_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_01_beg.xlsx
@@ -1256,7 +1256,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  Wolumonde. Its name means “The Eighth Moon,” and together with seven other nearby towns, it makes up Leithania’s flourishing northern trade network—
+    <t xml:space="preserve">[name="Suzuran"]  Wolumonde. Its name means 'The Eighth Moon,' and together with seven other nearby towns, it makes up Leithania’s flourishing northern trade network—
 </t>
   </si>
   <si>
@@ -1264,11 +1264,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  From what I’m seeing, “flourishing trade” isn’t exactly how I’d describe it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  Could it be because of the “Great Rift” thing?
+    <t xml:space="preserve">[name="Folinic"]  From what I’m seeing, 'flourishing trade' isn’t exactly how I’d describe it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Could it be because of the 'Great Rift' thing?
 </t>
   </si>
   <si>
@@ -1440,7 +1440,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  ...That’s a... Schultz? A “Schultheiß” is like a local leader?
+    <t xml:space="preserve">[name="Suzuran"]  ...That’s a... Schultz? A 'Schultheiß' is like a local leader?
 </t>
   </si>
   <si>
@@ -1996,7 +1996,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  (나는 의료 부서의 정식 오퍼레이터고, 리사도…… 켈시 선생님께 직접 배웠으니까 수련의쯤 되는 거지 뭐.)
+    <t xml:space="preserve">[name="폴리닉"]  (나는 의료부의 정식 오퍼레이터고, 리사도…… 켈시 선생님께 직접 배웠으니까 수련의쯤 되는 거지 뭐.)
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_01_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_01_beg.xlsx
@@ -1088,7 +1088,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Was I here when you decided my son’s fate?
+    <t xml:space="preserve">[name="Severin"]  Was I here when you decided my son's fate?
 </t>
   </si>
   <si>
@@ -1096,15 +1096,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Yes, she told me. You had her tell me. I’m only reminding you what you’ve done.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  What’s the situation?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Councilor"]  The Infected are still protesting. They’ve even started chasing off Infected newcomers.
+    <t xml:space="preserve">[name="Severin"]  Yes, she told me. You had her tell me. I'm only reminding you what you've done.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  What's the situation?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Councilor"]  The Infected are still protesting. They've even started chasing off Infected newcomers.
 </t>
   </si>
   <si>
@@ -1120,7 +1120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Even the Infected wouldn’t stoop that low. Most of them are from Wolumonde.
+    <t xml:space="preserve">[name="Severin"]  Even the Infected wouldn't stoop that low. Most of them are from Wolumonde.
 </t>
   </si>
   <si>
@@ -1132,11 +1132,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Councilor"]  But the militants have been lingering around the outskirts of the hamlet. I’m worried they might influence the protestors.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Councilor"]  Just a second, it’s from the sentry—
+    <t xml:space="preserve">[name="Councilor"]  But the militants have been lingering around the outskirts of the hamlet. I'm worried they might influence the protestors.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Councilor"]  Just a second, it's from the sentry—
 </t>
   </si>
   <si>
@@ -1152,7 +1152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  That would be Dr. Atro’s company. *Sigh.* We knew this was coming.
+    <t xml:space="preserve">[name="Severin"]  That would be Dr. Atro's company. *Sigh.* We knew this was coming.
 </t>
   </si>
   <si>
@@ -1192,7 +1192,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Councilor"]  I know we can’t sweep it under the rug. But you don’t have the final say in this. We have to prepare for the worst.
+    <t xml:space="preserve">[name="Councilor"]  I know we can't sweep it under the rug. But you don't have the final say in this. We have to prepare for the worst.
 </t>
   </si>
   <si>
@@ -1200,7 +1200,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I’m leaving.
+    <t xml:space="preserve">[name="Severin"]  I'm leaving.
 </t>
   </si>
   <si>
@@ -1220,23 +1220,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Councilor"]  I know you’re suffering, and there’s so much we could’ve done better, but we had no choice!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  I understand. That’s why I’m still talking to you nice and peacefully.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  I’ll leave Rhodes Island to you. You’re good at these things. I’ll walk the blocks.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  That’s the deal.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Councilor"]  Severin! Severin Hawthorn! You are this town’s Schultz! You can’t be running all over the—
+    <t xml:space="preserve">[name="Councilor"]  I know you're suffering, and there's so much we could've done better, but we had no choice!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  I understand. That's why I'm still talking to you nice and peacefully.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  I'll leave Rhodes Island to you. You're good at these things. I'll walk the blocks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  That's the deal.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Councilor"]  Severin! Severin Hawthorn! You are this town's Schultz! You can't be running all over the—
 </t>
   </si>
   <si>
@@ -1248,23 +1248,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Councilor"]  Forget it. Tatjana, Severin, Thor. They’re all tragic figures, really.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Councilor"]  Let’s get this place cleaned up. Rhodes Island will be here soon.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  Wolumonde. Its name means 'The Eighth Moon,' and together with seven other nearby towns, it makes up Leithania’s flourishing northern trade network—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  That’s what the book said, anyway.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  From what I’m seeing, 'flourishing trade' isn’t exactly how I’d describe it.
+    <t xml:space="preserve">[name="Councilor"]  Forget it. Tatjana, Severin, Thor. They're all tragic figures, really.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Councilor"]  Let's get this place cleaned up. Rhodes Island will be here soon.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  Wolumonde. Its name means 'The Eighth Moon,' and together with seven other nearby towns, it makes up Leithania's flourishing northern trade network—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  That's what the book said, anyway.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  From what I'm seeing, 'flourishing trade' isn't exactly how I'd describe it.
 </t>
   </si>
   <si>
@@ -1284,11 +1284,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Considering the detour we had to take, looks like this town won’t be moving an inch.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Visitors at a time like this? And such strange clothes. I hope this isn’t an ill omen...
+    <t xml:space="preserve">[name="Folinic"]  Considering the detour we had to take, looks like this town won't be moving an inch.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  Visitors at a time like this? And such strange clothes. I hope this isn't an ill omen...
 </t>
   </si>
   <si>
@@ -1308,7 +1308,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  There may be restrictions on your personal freedom, but should you want to live, you can win back that right as long as you’re willing to pay the price.
+    <t xml:space="preserve">[name="Folinic"]  There may be restrictions on your personal freedom, but should you want to live, you can win back that right as long as you're willing to pay the price.
 </t>
   </si>
   <si>
@@ -1316,15 +1316,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  At least it’s something affordable.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Wolumonde may be in the boonies and have its fair share of problems, but at least the Infected have a place to live... That’s what she told me anyway—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  —Oh, someone’s coming.
+    <t xml:space="preserve">[name="Folinic"]  At least it's something affordable.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Wolumonde may be in the boonies and have its fair share of problems, but at least the Infected have a place to live... That's what she told me anyway—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  —Oh, someone's coming.
 </t>
   </si>
   <si>
@@ -1332,7 +1332,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  (Hm? That man’s uniform...)
+    <t xml:space="preserve">[name="Suzuran"]  (Hm? That man's uniform...)
 </t>
   </si>
   <si>
@@ -1340,11 +1340,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  (He’s coming toward us. Is this the welcoming committee?)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  (I’m not sure...)
+    <t xml:space="preserve">[name="Suzuran"]  (He's coming toward us. Is this the welcoming committee?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  (I'm not sure...)
 </t>
   </si>
   <si>
@@ -1352,7 +1352,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  (He put his lighter into his pocket. Now he’s holding the cigarette with his other hand. He switched hands again—)
+    <t xml:space="preserve">[name="Suzuran"]  (He put his lighter into his pocket. Now he's holding the cigarette with his other hand. He switched hands again—)
 </t>
   </si>
   <si>
@@ -1368,7 +1368,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  Hello, we’re—
+    <t xml:space="preserve">[name="Folinic"]  Hello, we're—
 </t>
   </si>
   <si>
@@ -1384,7 +1384,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Me? I’m off duty.
+    <t xml:space="preserve">[name="Severin"]  Me? I'm off duty.
 </t>
   </si>
   <si>
@@ -1392,27 +1392,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I’m off duty. And I really don’t want to talk so much when I’m off... I have my own business to deal with.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Severin"]  That’s the deal. Later.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  And he’s gone?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Suzuran"]  He was kind of rude, but I think he’s been through a lot...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  Hah... as if we’re not tired!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Folinic"]  But at least he told us where to go. Let’s go talk to the local—
+    <t xml:space="preserve">[name="Severin"]  I'm off duty. And I really don't want to talk so much when I'm off... I have my own business to deal with.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Severin"]  That's the deal. Later.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  And he's gone?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Suzuran"]  He was kind of rude, but I think he's been through a lot...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  Hah... as if we're not tired!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Folinic"]  But at least he told us where to go. Let's go talk to the local—
 </t>
   </si>
   <si>
@@ -1424,7 +1424,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  Ah! You’re smoking! Did the shopkeepers get to you again? Please, you have an image to maintain. You wouldn’t want to lose the trust of the people—
+    <t xml:space="preserve">[name="Tatjana"]  Ah! You're smoking! Did the shopkeepers get to you again? Please, you have an image to maintain. You wouldn't want to lose the trust of the people—
 </t>
   </si>
   <si>
@@ -1440,7 +1440,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Suzuran"]  ...That’s a... Schultz? A 'Schultheiß' is like a local leader?
+    <t xml:space="preserve">[name="Suzuran"]  ...That's a... Schultz? A 'Schultheiß' is like a local leader?
 </t>
   </si>
   <si>
@@ -1448,7 +1448,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  No. You’re always working so hard, Tatjana. I admire you.
+    <t xml:space="preserve">[name="Severin"]  No. You're always working so hard, Tatjana. I admire you.
 </t>
   </si>
   <si>
@@ -1456,7 +1456,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tatjana"]  Now, about those two, they’re not from around here, are they? Could they be the doctors from Rhodes Island?
+    <t xml:space="preserve">[name="Tatjana"]  Now, about those two, they're not from around here, are they? Could they be the doctors from Rhodes Island?
 </t>
   </si>
   <si>
@@ -1476,11 +1476,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Folinic"]  (I’m a fully-fledged operator assigned to the Medical Department. And Lisa, you’ve... studied with Dr. Kal'tsit, so we can call you a medical intern. I guess.)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tatjana"]  I see... Oh! You two must be on your way to the Rathaus? I’m so sorry to get in your way!
+    <t xml:space="preserve">[name="Folinic"]  (I'm a fully-fledged operator assigned to the Medical Department. And Lisa, you've... studied with Dr. Kal'tsit, so we can call you a medical intern. I guess.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tatjana"]  I see... Oh! You two must be on your way to the Rathaus? I'm so sorry to get in your way!
 </t>
   </si>
   <si>
@@ -1492,7 +1492,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  Ahem! Very good, Tatjana, you take them. I’ll go look into this Infected situation.
+    <t xml:space="preserve">[name="Severin"]  Ahem! Very good, Tatjana, you take them. I'll go look into this Infected situation.
 </t>
   </si>
   <si>
@@ -1504,7 +1504,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  I know why you’re here. But our situation is dire.
+    <t xml:space="preserve">[name="Severin"]  I know why you're here. But our situation is dire.
 </t>
   </si>
   <si>
@@ -1520,7 +1520,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  So now the Infected are more riled up than ever before. If you don’t want to get mixed up in that, stay away from Zwölftontechnik Strasse.
+    <t xml:space="preserve">[name="Severin"]  So now the Infected are more riled up than ever before. If you don't want to get mixed up in that, stay away from Zwölftontechnik Strasse.
 </t>
   </si>
   <si>
@@ -1536,7 +1536,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  We don’t need it yet. It wouldn’t be right to drag our guests into this mess as soon as they’ve arrived. That would get us into trouble too.
+    <t xml:space="preserve">[name="Severin"]  We don't need it yet. It wouldn't be right to drag our guests into this mess as soon as they've arrived. That would get us into trouble too.
 </t>
   </si>
   <si>
@@ -1548,7 +1548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Severin"]  She’s not here right now.
+    <t xml:space="preserve">[name="Severin"]  She's not here right now.
 </t>
   </si>
   <si>
@@ -1564,11 +1564,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Townsfolk"]  Th-those Infected have weapons! What’s going on?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Townsfolk"]  They’ve got blades! Are they going to kill us?
+    <t xml:space="preserve">[name="Townsfolk"]  Th-those Infected have weapons! What's going on?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Townsfolk"]  They've got blades! Are they going to kill us?
 </t>
   </si>
   <si>
@@ -1700,7 +1700,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="주민 대표"]  하지만 그들이 모든 사실을 알게 되는 날엔…… 만약 로도스가 우리에게 책임을 추궁하기라도 하면, 월루몽드는 끝장입니다!
+    <t xml:space="preserve">[name="주민 대표"]  하지만 그들이 모든 사실을 알게 되는 날엔…… 만약 로도스 아일랜드가 우리에게 책임을 추궁하기라도 하면, 월루몽드는 끝장입니다!
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_01_beg.xlsx
+++ b/story/Activity Story 活动剧情/act11d0 Twilight of Wolumonde 沃伦姆德的薄暮 ウォルモンドの薄暮/level_act11d0_01_beg.xlsx
@@ -1592,7 +1592,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">라이타니아의 이동도시 월루몽드. 한때는 번화한 상업 도시였지만, 지금은 인적조차 드문 도시로 변해버렸다.
+    <t xml:space="preserve">라이타니엔의 이동도시 월루몽드. 한때는 번화한 상업 도시였지만, 지금은 인적조차 드문 도시로 변해버렸다.
 </t>
   </si>
   <si>
@@ -1776,7 +1776,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="스즈란"]  여덟 번째 달이라는 뜻을 가진 월루몽드는, 주변의 일곱 도시와 함께 라이타니아 서부에 번화한 상업지구를 형성했다……
+    <t xml:space="preserve">[name="스즈란"]  여덟 번째 달이라는 뜻을 가진 월루몽드는, 주변의 일곱 도시와 함께 라이타니엔 서부에 번화한 상업지구를 형성했다……
 </t>
   </si>
   <si>
@@ -1824,7 +1824,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="폴리닉"]  오리지늄 아츠의 보편화 덕분에 라이타니아에는 다른 지역과는 다른 두 가지 특색이 생겼어. 하나는 음악 예술의 번영, 또 하나는 감염자에 대한 너그러운 태도지.
+    <t xml:space="preserve">[name="폴리닉"]  오리지늄 아츠의 보편화 덕분에 라이타니엔에는 다른 지역과는 다른 두 가지 특색이 생겼어. 하나는 음악 예술의 번영, 또 하나는 감염자에 대한 너그러운 태도지.
 </t>
   </si>
   <si>
